--- a/data/account.xlsx
+++ b/data/account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B86A4A-5912-4F8B-918E-CB07568F4A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D344D8-E465-47A1-B9BF-6B3CDB7ECAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35700" yWindow="1845" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1591,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>1</v>

--- a/data/account.xlsx
+++ b/data/account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D344D8-E465-47A1-B9BF-6B3CDB7ECAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFBB149-5CCD-43DD-8E27-47B4EC7F1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35700" yWindow="1845" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32790" yWindow="2895" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>THEODOSIUS CHIN GUOJUN CHIN</t>
   </si>
   <si>
-    <t>LUKAS TAN LI ZHI TAN`</t>
-  </si>
-  <si>
     <t>PNG SWEE HIANG PNG</t>
   </si>
   <si>
@@ -525,6 +522,9 @@
   </si>
   <si>
     <t>2402271@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>LUKAS TAN LI ZHI TAN</t>
   </si>
 </sst>
 </file>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,40 +880,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -927,7 +927,7 @@
         <v>2501</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>2303213</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>45747</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -976,7 +976,7 @@
         <v>2401554</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>45747</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1005,7 +1005,7 @@
         <v>2400971</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1020,7 +1020,7 @@
         <v>45747</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1034,13 +1034,13 @@
         <v>2400892</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>45747</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1063,13 +1063,13 @@
         <v>2401574</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>45747</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1092,7 +1092,7 @@
         <v>2301241</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1107,7 +1107,7 @@
         <v>45747</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1121,7 +1121,7 @@
         <v>2402119</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>45747</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>2200116</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>45747</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1179,7 +1179,7 @@
         <v>2402492</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>45747</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1208,13 +1208,13 @@
         <v>2401356</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>45747</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1237,7 +1237,7 @@
         <v>2402042</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>45747</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1266,13 +1266,13 @@
         <v>2003284</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>45747</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1295,7 +1295,7 @@
         <v>2102399</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>45747</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1318,19 +1318,19 @@
         <v>2302801</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="C16">
         <v>2302801</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>45747</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1347,19 +1347,19 @@
         <v>2401910</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>2401910</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>45747</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1376,13 +1376,13 @@
         <v>2400867</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>2400867</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>45747</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1405,19 +1405,19 @@
         <v>2201218</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>2201218</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>45747</v>
       </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -1434,13 +1434,13 @@
         <v>2403380</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>2403380</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>45747</v>
       </c>
       <c r="L20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1463,13 +1463,13 @@
         <v>2301451</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>2301451</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1484,7 +1484,7 @@
         <v>45747</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1492,13 +1492,13 @@
         <v>2201520</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>2201520</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>45747</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -1521,13 +1521,13 @@
         <v>2303239</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>2303239</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>45747</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -1550,19 +1550,19 @@
         <v>2402043</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>2402043</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>45747</v>
       </c>
       <c r="L24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -1579,13 +1579,13 @@
         <v>2301322</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>2301322</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>45747</v>
       </c>
       <c r="L25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -1608,13 +1608,13 @@
         <v>2402351</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>2402351</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         <v>45747</v>
       </c>
       <c r="L26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -1637,13 +1637,13 @@
         <v>2401236</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>2401236</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>45747</v>
       </c>
       <c r="L27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -1666,13 +1666,13 @@
         <v>2400788</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>2400788</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         <v>45747</v>
       </c>
       <c r="L28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -1695,19 +1695,19 @@
         <v>2400702</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>2400702</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>45747</v>
       </c>
       <c r="L29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -1724,13 +1724,13 @@
         <v>2301554</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>2301554</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1745,7 +1745,7 @@
         <v>45747</v>
       </c>
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -1753,13 +1753,13 @@
         <v>2302112</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>2302112</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1774,7 +1774,7 @@
         <v>45747</v>
       </c>
       <c r="L31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -1782,13 +1782,13 @@
         <v>2302648</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>2302648</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1803,7 +1803,7 @@
         <v>45747</v>
       </c>
       <c r="L32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -1811,13 +1811,13 @@
         <v>2303202</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>2303202</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1832,7 +1832,7 @@
         <v>45747</v>
       </c>
       <c r="L33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -1840,13 +1840,13 @@
         <v>2400573</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>2400573</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1861,7 +1861,7 @@
         <v>45747</v>
       </c>
       <c r="L34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -1869,13 +1869,13 @@
         <v>2400741</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>2400741</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>45747</v>
       </c>
       <c r="L35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -1898,13 +1898,13 @@
         <v>2400747</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>2400747</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>45747</v>
       </c>
       <c r="L36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -1927,13 +1927,13 @@
         <v>2400849</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>2400849</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>45747</v>
       </c>
       <c r="L37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -1956,13 +1956,13 @@
         <v>2400959</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>2400959</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>45747</v>
       </c>
       <c r="L38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -1985,13 +1985,13 @@
         <v>2401035</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>2401035</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>45747</v>
       </c>
       <c r="L39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2014,13 +2014,13 @@
         <v>2401055</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>2401055</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>45747</v>
       </c>
       <c r="L40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -2043,13 +2043,13 @@
         <v>2401077</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>2401077</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>45747</v>
       </c>
       <c r="L41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -2072,13 +2072,13 @@
         <v>2401472</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>2401472</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>45747</v>
       </c>
       <c r="L42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -2101,13 +2101,13 @@
         <v>2401652</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>2401652</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2122,7 +2122,7 @@
         <v>45747</v>
       </c>
       <c r="L43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -2130,13 +2130,13 @@
         <v>2401732</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>2401732</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2151,7 +2151,7 @@
         <v>45747</v>
       </c>
       <c r="L44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -2159,13 +2159,13 @@
         <v>2401846</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>2401846</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2180,7 +2180,7 @@
         <v>45747</v>
       </c>
       <c r="L45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -2188,13 +2188,13 @@
         <v>2402008</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>2402008</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2209,7 +2209,7 @@
         <v>45747</v>
       </c>
       <c r="L46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -2217,13 +2217,13 @@
         <v>2402070</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>2402070</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2238,7 +2238,7 @@
         <v>45747</v>
       </c>
       <c r="L47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2246,13 +2246,13 @@
         <v>2402880</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <v>2402880</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2267,7 +2267,7 @@
         <v>45747</v>
       </c>
       <c r="L48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -2275,13 +2275,13 @@
         <v>2403329</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>2403329</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>45747</v>
       </c>
       <c r="L49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -2304,13 +2304,13 @@
         <v>2403383</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>2403383</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2325,7 +2325,7 @@
         <v>45747</v>
       </c>
       <c r="L50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -2333,13 +2333,13 @@
         <v>2403472</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>2403472</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2354,7 +2354,7 @@
         <v>45747</v>
       </c>
       <c r="L51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -2362,13 +2362,13 @@
         <v>2500210</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>2500210</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2383,7 +2383,7 @@
         <v>45747</v>
       </c>
       <c r="L52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -2391,13 +2391,13 @@
         <v>2500452</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>2500452</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2412,7 +2412,7 @@
         <v>45747</v>
       </c>
       <c r="L53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -2420,13 +2420,13 @@
         <v>2500477</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>2500477</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2441,7 +2441,7 @@
         <v>45747</v>
       </c>
       <c r="L54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -2449,13 +2449,13 @@
         <v>2500689</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <v>2500689</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>45747</v>
       </c>
       <c r="L55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -2478,13 +2478,13 @@
         <v>2500970</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>2500970</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2499,7 +2499,7 @@
         <v>45747</v>
       </c>
       <c r="L56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -2507,13 +2507,13 @@
         <v>2500981</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>2500981</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2528,7 +2528,7 @@
         <v>45747</v>
       </c>
       <c r="L57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -2536,13 +2536,13 @@
         <v>2501067</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>2501067</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>45747</v>
       </c>
       <c r="L58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -2565,13 +2565,13 @@
         <v>2501612</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>2501612</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>45747</v>
       </c>
       <c r="L59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -2594,13 +2594,13 @@
         <v>2501623</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>2501623</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>45747</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -2623,13 +2623,13 @@
         <v>2501773</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>2501773</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>45747</v>
       </c>
       <c r="L61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -2652,13 +2652,13 @@
         <v>2501931</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>2501931</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>45747</v>
       </c>
       <c r="L62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -2681,13 +2681,13 @@
         <v>2502060</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>2502060</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2702,7 +2702,7 @@
         <v>45747</v>
       </c>
       <c r="L63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -2710,13 +2710,13 @@
         <v>2502337</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>2502337</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2731,7 +2731,7 @@
         <v>45747</v>
       </c>
       <c r="L64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -2739,13 +2739,13 @@
         <v>2502375</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>2502375</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2760,7 +2760,7 @@
         <v>45747</v>
       </c>
       <c r="L65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -2768,13 +2768,13 @@
         <v>2502880</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>2502880</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2789,7 +2789,7 @@
         <v>45747</v>
       </c>
       <c r="L66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -2797,13 +2797,13 @@
         <v>2503832</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>2503832</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2818,7 +2818,7 @@
         <v>45747</v>
       </c>
       <c r="L67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -2826,13 +2826,13 @@
         <v>2301439</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>2301439</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2847,7 +2847,7 @@
         <v>45747</v>
       </c>
       <c r="L68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -2855,13 +2855,13 @@
         <v>2401584</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C69">
         <v>2401584</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="L69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -2881,13 +2881,13 @@
         <v>2402123</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70">
         <v>2402123</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>3</v>
       </c>
       <c r="L70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -2907,13 +2907,13 @@
         <v>2503446</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C71">
         <v>2503446</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>3</v>
       </c>
       <c r="L71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -2933,13 +2933,13 @@
         <v>2400579</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72">
         <v>2400579</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="L72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -2959,13 +2959,13 @@
         <v>2402060</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73">
         <v>2402060</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="L73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -2985,13 +2985,13 @@
         <v>2503450</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74">
         <v>2503450</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="L74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -3011,13 +3011,13 @@
         <v>2401608</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75">
         <v>2401608</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="L75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -3037,13 +3037,13 @@
         <v>2402271</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76">
         <v>2402271</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="L76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/account.xlsx
+++ b/data/account.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,26 +474,6 @@
           <t>totalPendingShift</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>intake</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Batch</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Contract Expiry</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SIT Email</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -530,10 +506,6 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -566,18 +538,6 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2303213@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,18 +570,6 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2401554@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,19 +600,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2400971@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -698,18 +634,6 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2400892@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -740,19 +664,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2401574@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -786,18 +698,6 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2301241@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -830,18 +730,6 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2402119@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -872,19 +760,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2200116@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -916,19 +792,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2402492@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -960,19 +824,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2401356@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1006,18 +858,6 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2402042@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1048,19 +888,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2003284@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1094,18 +922,6 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2102399@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1136,19 +952,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2302801@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -1180,19 +984,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2401910@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1224,19 +1016,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2400867@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1270,18 +1050,6 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2201218@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1314,18 +1082,6 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>2403380@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1353,22 +1109,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2301451@sit.singaporetech.edu.sg</t>
-        </is>
       </c>
     </row>
     <row r="22">
@@ -1402,18 +1146,6 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2201520@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1446,18 +1178,6 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2303239@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1490,18 +1210,6 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2402043@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1534,18 +1242,6 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2301322@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1578,18 +1274,6 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2402351@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1622,18 +1306,6 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2401236@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1664,19 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2400788@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1710,18 +1370,6 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2400702@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1754,18 +1402,6 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2301554@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1798,18 +1434,6 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2302112@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1842,18 +1466,6 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2302648@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1884,19 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2303202@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1928,19 +1528,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2400573@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1972,19 +1560,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2400741@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2018,18 +1594,6 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2400747@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2062,18 +1626,6 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2400849@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2104,19 +1656,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2</v>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2400959@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2150,18 +1690,6 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>2401035@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2194,18 +1722,6 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2</v>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2401055@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2238,18 +1754,6 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2</v>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2401077@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2282,18 +1786,6 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2</v>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2401472@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2326,18 +1818,6 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2</v>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2401652@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2368,19 +1848,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2</v>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>2401732@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2414,18 +1882,6 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2401846@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2453,22 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2</v>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2402008@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2502,18 +1946,6 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>2402070@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2546,18 +1978,6 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2</v>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>2402880@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2590,18 +2010,6 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2</v>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>2403329@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2634,18 +2042,6 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2</v>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2403383@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2676,19 +2072,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2</v>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>2403472@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2722,18 +2106,6 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2</v>
-      </c>
-      <c r="K52" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>2500210@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2766,18 +2138,6 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2</v>
-      </c>
-      <c r="K53" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>2500452@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2810,18 +2170,6 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2</v>
-      </c>
-      <c r="K54" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>2500477@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2852,19 +2200,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2</v>
-      </c>
-      <c r="K55" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2500689@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2898,18 +2234,6 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2</v>
-      </c>
-      <c r="K56" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>2500970@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2940,19 +2264,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2</v>
-      </c>
-      <c r="K57" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2500981@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -2986,18 +2298,6 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2</v>
-      </c>
-      <c r="K58" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2501067@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3028,19 +2328,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2</v>
-      </c>
-      <c r="K59" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2501612@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3074,18 +2362,6 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2</v>
-      </c>
-      <c r="K60" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2501623@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3118,18 +2394,6 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2</v>
-      </c>
-      <c r="K61" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2501773@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3160,19 +2424,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>2</v>
-      </c>
-      <c r="K62" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>2501931@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -3204,19 +2456,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>2</v>
-      </c>
-      <c r="K63" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2502060@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3248,19 +2488,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>2</v>
-      </c>
-      <c r="K64" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>2502337@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -3292,19 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>2</v>
-      </c>
-      <c r="K65" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>2502375@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -3336,19 +2552,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>2</v>
-      </c>
-      <c r="K66" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>2502880@sit.singaporetech.edu.sg</t>
-        </is>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3382,18 +2586,6 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>2</v>
-      </c>
-      <c r="K67" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>2503832@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3426,18 +2618,6 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>2</v>
-      </c>
-      <c r="K68" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>2301439@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3470,16 +2650,6 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>2401584@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3512,16 +2682,6 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>2402123@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3554,16 +2714,6 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>2503446@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3596,16 +2746,6 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>2400579@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3638,16 +2778,6 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>2402060@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3680,16 +2810,6 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>2503450@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3722,16 +2842,6 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>2401608@sit.singaporetech.edu.sg</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3763,16 +2873,6 @@
       </c>
       <c r="H76" t="n">
         <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>2402271@sit.singaporetech.edu.sg</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/data/account.xlsx
+++ b/data/account.xlsx
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">

--- a/data/account.xlsx
+++ b/data/account.xlsx
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">

--- a/data/account.xlsx
+++ b/data/account.xlsx
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -789,10 +789,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -885,10 +885,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -949,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -981,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1013,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1109,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1557,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1845,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2069,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">

--- a/data/account.xlsx
+++ b/data/account.xlsx
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1112,7 +1112,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1522,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>9</v>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>14</v>

--- a/data/account.xlsx
+++ b/data/account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\SIT POD Student Talent 2026\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C27E1C-005F-4C25-BDC8-0F6482330494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D57E54F-BD32-4EAA-B9EA-4A227158B299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -865,7 +865,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H76"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>

--- a/data/account.xlsx
+++ b/data/account.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,47 +422,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>onjobtrain</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>nightShift</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>totalApprovedShift</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>totalPendingShift</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Unnamed: 8</t>
         </is>
@@ -1174,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
